--- a/contratos/contratos-8-2014.xlsx
+++ b/contratos/contratos-8-2014.xlsx
@@ -775,7 +775,7 @@
     <t>PEREZ DANIEL RUBEN</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>YLUM S.A.</t>
@@ -892,13 +892,13 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>SARJANOVICH ANDRES</t>
@@ -940,7 +940,7 @@
     <t>GRUPO MARSO S.R.L.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>FRANCIA MARCELO ANIBAL</t>
@@ -1333,7 +1333,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>MFZ</t>
@@ -1525,700 +1525,700 @@
     <t>161</t>
   </si>
   <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>7.010,00</t>
-  </si>
-  <si>
-    <t>840,00</t>
-  </si>
-  <si>
-    <t>54.000,00</t>
-  </si>
-  <si>
-    <t>53.000,00</t>
-  </si>
-  <si>
-    <t>365.000,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>175.318,04</t>
-  </si>
-  <si>
-    <t>160.000,00</t>
-  </si>
-  <si>
-    <t>1.410,00</t>
-  </si>
-  <si>
-    <t>90,00</t>
-  </si>
-  <si>
-    <t>3.699,00</t>
-  </si>
-  <si>
-    <t>34.034,00</t>
-  </si>
-  <si>
-    <t>195.700,12</t>
-  </si>
-  <si>
-    <t>33.291,00</t>
-  </si>
-  <si>
-    <t>141.602,14</t>
-  </si>
-  <si>
-    <t>3.177,50</t>
-  </si>
-  <si>
-    <t>9.400,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>2.236,00</t>
-  </si>
-  <si>
-    <t>1.690,50</t>
-  </si>
-  <si>
-    <t>23.748,13</t>
-  </si>
-  <si>
-    <t>2.270,00</t>
-  </si>
-  <si>
-    <t>11.958,79</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>140,00</t>
-  </si>
-  <si>
-    <t>818,40</t>
-  </si>
-  <si>
-    <t>5.086,20</t>
-  </si>
-  <si>
-    <t>5.893,80</t>
-  </si>
-  <si>
-    <t>6.960,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>68.388,30</t>
-  </si>
-  <si>
-    <t>65.638,99</t>
-  </si>
-  <si>
-    <t>2.272,88</t>
-  </si>
-  <si>
-    <t>124,41</t>
-  </si>
-  <si>
-    <t>3.445,07</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>26.393,00</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>204,00</t>
-  </si>
-  <si>
-    <t>98.460,65</t>
-  </si>
-  <si>
-    <t>3.982,96</t>
-  </si>
-  <si>
-    <t>15.524,00</t>
-  </si>
-  <si>
-    <t>2.224,00</t>
-  </si>
-  <si>
-    <t>5.310,63</t>
-  </si>
-  <si>
-    <t>36.688,82</t>
-  </si>
-  <si>
-    <t>1.010,00</t>
-  </si>
-  <si>
-    <t>594,48</t>
-  </si>
-  <si>
-    <t>2.519,11</t>
-  </si>
-  <si>
-    <t>44.171,10</t>
-  </si>
-  <si>
-    <t>28.320,46</t>
-  </si>
-  <si>
-    <t>145,20</t>
-  </si>
-  <si>
-    <t>520,00</t>
-  </si>
-  <si>
-    <t>1.580,00</t>
-  </si>
-  <si>
-    <t>4.883,43</t>
-  </si>
-  <si>
-    <t>116,10</t>
-  </si>
-  <si>
-    <t>3.928,32</t>
-  </si>
-  <si>
-    <t>5.365,59</t>
-  </si>
-  <si>
-    <t>430,00</t>
-  </si>
-  <si>
-    <t>448,00</t>
-  </si>
-  <si>
-    <t>3.313,28</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>32.160,69</t>
-  </si>
-  <si>
-    <t>4.341,22</t>
-  </si>
-  <si>
-    <t>45.654,09</t>
-  </si>
-  <si>
-    <t>29.750,00</t>
-  </si>
-  <si>
-    <t>445,36</t>
-  </si>
-  <si>
-    <t>6.235,00</t>
-  </si>
-  <si>
-    <t>7.963,00</t>
-  </si>
-  <si>
-    <t>3.399,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>410,00</t>
-  </si>
-  <si>
-    <t>781,44</t>
-  </si>
-  <si>
-    <t>1.390,00</t>
-  </si>
-  <si>
-    <t>202,83</t>
-  </si>
-  <si>
-    <t>776,00</t>
-  </si>
-  <si>
-    <t>78,21</t>
-  </si>
-  <si>
-    <t>3.202,86</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>4.130,00</t>
-  </si>
-  <si>
-    <t>27.329,89</t>
-  </si>
-  <si>
-    <t>680,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>2.949,90</t>
-  </si>
-  <si>
-    <t>790,00</t>
-  </si>
-  <si>
-    <t>16.608,00</t>
-  </si>
-  <si>
-    <t>8.630,00</t>
-  </si>
-  <si>
-    <t>9.890,00</t>
-  </si>
-  <si>
-    <t>25.140,00</t>
-  </si>
-  <si>
-    <t>1.590,00</t>
-  </si>
-  <si>
-    <t>590,00</t>
-  </si>
-  <si>
-    <t>99,00</t>
-  </si>
-  <si>
-    <t>270,00</t>
-  </si>
-  <si>
-    <t>364,18</t>
-  </si>
-  <si>
-    <t>71.833,00</t>
-  </si>
-  <si>
-    <t>6.935,00</t>
-  </si>
-  <si>
-    <t>1.297,44</t>
-  </si>
-  <si>
-    <t>690,00</t>
-  </si>
-  <si>
-    <t>530,00</t>
-  </si>
-  <si>
-    <t>25,00</t>
-  </si>
-  <si>
-    <t>60,00</t>
-  </si>
-  <si>
-    <t>345.761,96</t>
-  </si>
-  <si>
-    <t>81.592,86</t>
-  </si>
-  <si>
-    <t>1.360,00</t>
-  </si>
-  <si>
-    <t>1,62</t>
-  </si>
-  <si>
-    <t>11.751,56</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>1.044,00</t>
-  </si>
-  <si>
-    <t>26.530,00</t>
-  </si>
-  <si>
-    <t>8.259,60</t>
-  </si>
-  <si>
-    <t>26,00</t>
-  </si>
-  <si>
-    <t>445,00</t>
-  </si>
-  <si>
-    <t>203,00</t>
-  </si>
-  <si>
-    <t>69,75</t>
-  </si>
-  <si>
-    <t>1.621,00</t>
-  </si>
-  <si>
-    <t>5.178,00</t>
-  </si>
-  <si>
-    <t>222,00</t>
-  </si>
-  <si>
-    <t>8.719,48</t>
-  </si>
-  <si>
-    <t>968,50</t>
-  </si>
-  <si>
-    <t>7.703,66</t>
-  </si>
-  <si>
-    <t>818,05</t>
-  </si>
-  <si>
-    <t>210,80</t>
-  </si>
-  <si>
-    <t>8.144,88</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>21,00</t>
-  </si>
-  <si>
-    <t>1.545,00</t>
-  </si>
-  <si>
-    <t>17.060,00</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>2.089,92</t>
-  </si>
-  <si>
-    <t>3.400,00</t>
-  </si>
-  <si>
-    <t>480,40</t>
-  </si>
-  <si>
-    <t>2.112,00</t>
-  </si>
-  <si>
-    <t>3.012,00</t>
-  </si>
-  <si>
-    <t>13.700,00</t>
-  </si>
-  <si>
-    <t>3.370,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>400,00</t>
-  </si>
-  <si>
-    <t>3.545,17</t>
-  </si>
-  <si>
-    <t>183,02</t>
-  </si>
-  <si>
-    <t>2.489,00</t>
-  </si>
-  <si>
-    <t>305,36</t>
-  </si>
-  <si>
-    <t>1.649,00</t>
-  </si>
-  <si>
-    <t>1.941,00</t>
-  </si>
-  <si>
-    <t>9.883,12</t>
-  </si>
-  <si>
-    <t>3.300,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>6.600,00</t>
-  </si>
-  <si>
-    <t>8.046,50</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>16.791,75</t>
-  </si>
-  <si>
-    <t>4.100,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>15.120,00</t>
-  </si>
-  <si>
-    <t>395,00</t>
-  </si>
-  <si>
-    <t>338,80</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>6.520,00</t>
-  </si>
-  <si>
-    <t>56.923,90</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>9.780,00</t>
-  </si>
-  <si>
-    <t>2.030,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>541,25</t>
-  </si>
-  <si>
-    <t>723,04</t>
-  </si>
-  <si>
-    <t>6.706,00</t>
-  </si>
-  <si>
-    <t>4.515,00</t>
-  </si>
-  <si>
-    <t>40,64</t>
-  </si>
-  <si>
-    <t>2.598,20</t>
-  </si>
-  <si>
-    <t>423,00</t>
-  </si>
-  <si>
-    <t>9,00</t>
-  </si>
-  <si>
-    <t>4.690,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>5.969,83</t>
-  </si>
-  <si>
-    <t>753,00</t>
-  </si>
-  <si>
-    <t>1.563,77</t>
-  </si>
-  <si>
-    <t>298,12</t>
-  </si>
-  <si>
-    <t>2.122,00</t>
-  </si>
-  <si>
-    <t>6.954,94</t>
-  </si>
-  <si>
-    <t>4.974,75</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>137,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>1.485,19</t>
-  </si>
-  <si>
-    <t>2.283,28</t>
-  </si>
-  <si>
-    <t>315,00</t>
-  </si>
-  <si>
-    <t>197,45</t>
-  </si>
-  <si>
-    <t>96,00</t>
-  </si>
-  <si>
-    <t>151,42</t>
-  </si>
-  <si>
-    <t>2.520,00</t>
-  </si>
-  <si>
-    <t>1.470,00</t>
-  </si>
-  <si>
-    <t>1.284,04</t>
-  </si>
-  <si>
-    <t>13.259,00</t>
-  </si>
-  <si>
-    <t>284,66</t>
-  </si>
-  <si>
-    <t>1.260,00</t>
-  </si>
-  <si>
-    <t>128,20</t>
-  </si>
-  <si>
-    <t>2.533,20</t>
-  </si>
-  <si>
-    <t>1.072,23</t>
-  </si>
-  <si>
-    <t>10.864,38</t>
-  </si>
-  <si>
-    <t>470,45</t>
-  </si>
-  <si>
-    <t>6.184,55</t>
-  </si>
-  <si>
-    <t>1.597.171,03</t>
-  </si>
-  <si>
-    <t>537,68</t>
-  </si>
-  <si>
-    <t>91.843,70</t>
-  </si>
-  <si>
-    <t>2.730,00</t>
-  </si>
-  <si>
-    <t>5.470,00</t>
-  </si>
-  <si>
-    <t>179.336,00</t>
-  </si>
-  <si>
-    <t>293.241,80</t>
-  </si>
-  <si>
-    <t>40.000,00</t>
-  </si>
-  <si>
-    <t>42.800,00</t>
-  </si>
-  <si>
-    <t>108.020,00</t>
-  </si>
-  <si>
-    <t>107.650,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>57.758,00</t>
-  </si>
-  <si>
-    <t>244.344,00</t>
-  </si>
-  <si>
-    <t>137.948,00</t>
-  </si>
-  <si>
-    <t>268.304,00</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>112.000,00</t>
-  </si>
-  <si>
-    <t>285.900,00</t>
-  </si>
-  <si>
-    <t>242,00</t>
-  </si>
-  <si>
-    <t>2.070,00</t>
-  </si>
-  <si>
-    <t>6.475,00</t>
-  </si>
-  <si>
-    <t>22.610,00</t>
-  </si>
-  <si>
-    <t>10.570,56</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>4.800,00</t>
-  </si>
-  <si>
-    <t>1.354,98</t>
-  </si>
-  <si>
-    <t>2.569,00</t>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>7010.00</t>
+  </si>
+  <si>
+    <t>840.00</t>
+  </si>
+  <si>
+    <t>54000.00</t>
+  </si>
+  <si>
+    <t>53000.00</t>
+  </si>
+  <si>
+    <t>365000.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>175318.04</t>
+  </si>
+  <si>
+    <t>160000.00</t>
+  </si>
+  <si>
+    <t>1410.00</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>3699.00</t>
+  </si>
+  <si>
+    <t>34034.00</t>
+  </si>
+  <si>
+    <t>195700.12</t>
+  </si>
+  <si>
+    <t>33291.00</t>
+  </si>
+  <si>
+    <t>141602.14</t>
+  </si>
+  <si>
+    <t>3177.50</t>
+  </si>
+  <si>
+    <t>9400.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>2236.00</t>
+  </si>
+  <si>
+    <t>1690.50</t>
+  </si>
+  <si>
+    <t>23748.13</t>
+  </si>
+  <si>
+    <t>2270.00</t>
+  </si>
+  <si>
+    <t>11958.79</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>818.40</t>
+  </si>
+  <si>
+    <t>5086.20</t>
+  </si>
+  <si>
+    <t>5893.80</t>
+  </si>
+  <si>
+    <t>6960.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>68388.30</t>
+  </si>
+  <si>
+    <t>65638.99</t>
+  </si>
+  <si>
+    <t>2272.88</t>
+  </si>
+  <si>
+    <t>124.41</t>
+  </si>
+  <si>
+    <t>3445.07</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>26393.00</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>204.00</t>
+  </si>
+  <si>
+    <t>98460.65</t>
+  </si>
+  <si>
+    <t>3982.96</t>
+  </si>
+  <si>
+    <t>15524.00</t>
+  </si>
+  <si>
+    <t>2224.00</t>
+  </si>
+  <si>
+    <t>5310.63</t>
+  </si>
+  <si>
+    <t>36688.82</t>
+  </si>
+  <si>
+    <t>1010.00</t>
+  </si>
+  <si>
+    <t>594.48</t>
+  </si>
+  <si>
+    <t>2519.11</t>
+  </si>
+  <si>
+    <t>44171.10</t>
+  </si>
+  <si>
+    <t>28320.46</t>
+  </si>
+  <si>
+    <t>145.20</t>
+  </si>
+  <si>
+    <t>520.00</t>
+  </si>
+  <si>
+    <t>1580.00</t>
+  </si>
+  <si>
+    <t>4883.43</t>
+  </si>
+  <si>
+    <t>116.10</t>
+  </si>
+  <si>
+    <t>3928.32</t>
+  </si>
+  <si>
+    <t>5365.59</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>448.00</t>
+  </si>
+  <si>
+    <t>3313.28</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>32160.69</t>
+  </si>
+  <si>
+    <t>4341.22</t>
+  </si>
+  <si>
+    <t>45654.09</t>
+  </si>
+  <si>
+    <t>29750.00</t>
+  </si>
+  <si>
+    <t>445.36</t>
+  </si>
+  <si>
+    <t>6235.00</t>
+  </si>
+  <si>
+    <t>7963.00</t>
+  </si>
+  <si>
+    <t>3399.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>410.00</t>
+  </si>
+  <si>
+    <t>781.44</t>
+  </si>
+  <si>
+    <t>1390.00</t>
+  </si>
+  <si>
+    <t>202.83</t>
+  </si>
+  <si>
+    <t>776.00</t>
+  </si>
+  <si>
+    <t>78.21</t>
+  </si>
+  <si>
+    <t>3202.86</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>4130.00</t>
+  </si>
+  <si>
+    <t>27329.89</t>
+  </si>
+  <si>
+    <t>680.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>2949.90</t>
+  </si>
+  <si>
+    <t>790.00</t>
+  </si>
+  <si>
+    <t>16608.00</t>
+  </si>
+  <si>
+    <t>8630.00</t>
+  </si>
+  <si>
+    <t>9890.00</t>
+  </si>
+  <si>
+    <t>25140.00</t>
+  </si>
+  <si>
+    <t>1590.00</t>
+  </si>
+  <si>
+    <t>590.00</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>270.00</t>
+  </si>
+  <si>
+    <t>364.18</t>
+  </si>
+  <si>
+    <t>71833.00</t>
+  </si>
+  <si>
+    <t>6935.00</t>
+  </si>
+  <si>
+    <t>1297.44</t>
+  </si>
+  <si>
+    <t>690.00</t>
+  </si>
+  <si>
+    <t>530.00</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>345761.96</t>
+  </si>
+  <si>
+    <t>81592.86</t>
+  </si>
+  <si>
+    <t>1360.00</t>
+  </si>
+  <si>
+    <t>1.62</t>
+  </si>
+  <si>
+    <t>11751.56</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>1044.00</t>
+  </si>
+  <si>
+    <t>26530.00</t>
+  </si>
+  <si>
+    <t>8259.60</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>445.00</t>
+  </si>
+  <si>
+    <t>203.00</t>
+  </si>
+  <si>
+    <t>69.75</t>
+  </si>
+  <si>
+    <t>1621.00</t>
+  </si>
+  <si>
+    <t>5178.00</t>
+  </si>
+  <si>
+    <t>222.00</t>
+  </si>
+  <si>
+    <t>8719.48</t>
+  </si>
+  <si>
+    <t>968.50</t>
+  </si>
+  <si>
+    <t>7703.66</t>
+  </si>
+  <si>
+    <t>818.05</t>
+  </si>
+  <si>
+    <t>210.80</t>
+  </si>
+  <si>
+    <t>8144.88</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>1545.00</t>
+  </si>
+  <si>
+    <t>17060.00</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>2089.92</t>
+  </si>
+  <si>
+    <t>3400.00</t>
+  </si>
+  <si>
+    <t>480.40</t>
+  </si>
+  <si>
+    <t>2112.00</t>
+  </si>
+  <si>
+    <t>3012.00</t>
+  </si>
+  <si>
+    <t>13700.00</t>
+  </si>
+  <si>
+    <t>3370.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>400.00</t>
+  </si>
+  <si>
+    <t>3545.17</t>
+  </si>
+  <si>
+    <t>183.02</t>
+  </si>
+  <si>
+    <t>2489.00</t>
+  </si>
+  <si>
+    <t>305.36</t>
+  </si>
+  <si>
+    <t>1649.00</t>
+  </si>
+  <si>
+    <t>1941.00</t>
+  </si>
+  <si>
+    <t>9883.12</t>
+  </si>
+  <si>
+    <t>3300.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>6600.00</t>
+  </si>
+  <si>
+    <t>8046.50</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>16791.75</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>15120.00</t>
+  </si>
+  <si>
+    <t>395.00</t>
+  </si>
+  <si>
+    <t>338.80</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>6520.00</t>
+  </si>
+  <si>
+    <t>56923.90</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>9780.00</t>
+  </si>
+  <si>
+    <t>2030.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>541.25</t>
+  </si>
+  <si>
+    <t>723.04</t>
+  </si>
+  <si>
+    <t>6706.00</t>
+  </si>
+  <si>
+    <t>4515.00</t>
+  </si>
+  <si>
+    <t>40.64</t>
+  </si>
+  <si>
+    <t>2598.20</t>
+  </si>
+  <si>
+    <t>423.00</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>4690.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>5969.83</t>
+  </si>
+  <si>
+    <t>753.00</t>
+  </si>
+  <si>
+    <t>1563.77</t>
+  </si>
+  <si>
+    <t>298.12</t>
+  </si>
+  <si>
+    <t>2122.00</t>
+  </si>
+  <si>
+    <t>6954.94</t>
+  </si>
+  <si>
+    <t>4974.75</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>137.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>1485.19</t>
+  </si>
+  <si>
+    <t>2283.28</t>
+  </si>
+  <si>
+    <t>315.00</t>
+  </si>
+  <si>
+    <t>197.45</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>151.42</t>
+  </si>
+  <si>
+    <t>2520.00</t>
+  </si>
+  <si>
+    <t>1470.00</t>
+  </si>
+  <si>
+    <t>1284.04</t>
+  </si>
+  <si>
+    <t>13259.00</t>
+  </si>
+  <si>
+    <t>284.66</t>
+  </si>
+  <si>
+    <t>1260.00</t>
+  </si>
+  <si>
+    <t>128.20</t>
+  </si>
+  <si>
+    <t>2533.20</t>
+  </si>
+  <si>
+    <t>1072.23</t>
+  </si>
+  <si>
+    <t>10864.38</t>
+  </si>
+  <si>
+    <t>470.45</t>
+  </si>
+  <si>
+    <t>6184.55</t>
+  </si>
+  <si>
+    <t>1597171.03</t>
+  </si>
+  <si>
+    <t>537.68</t>
+  </si>
+  <si>
+    <t>91843.70</t>
+  </si>
+  <si>
+    <t>2730.00</t>
+  </si>
+  <si>
+    <t>5470.00</t>
+  </si>
+  <si>
+    <t>179336.00</t>
+  </si>
+  <si>
+    <t>293241.80</t>
+  </si>
+  <si>
+    <t>40000.00</t>
+  </si>
+  <si>
+    <t>42800.00</t>
+  </si>
+  <si>
+    <t>108020.00</t>
+  </si>
+  <si>
+    <t>107650.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>57758.00</t>
+  </si>
+  <si>
+    <t>244344.00</t>
+  </si>
+  <si>
+    <t>137948.00</t>
+  </si>
+  <si>
+    <t>268304.00</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>112000.00</t>
+  </si>
+  <si>
+    <t>285900.00</t>
+  </si>
+  <si>
+    <t>242.00</t>
+  </si>
+  <si>
+    <t>2070.00</t>
+  </si>
+  <si>
+    <t>6475.00</t>
+  </si>
+  <si>
+    <t>22610.00</t>
+  </si>
+  <si>
+    <t>10570.56</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>4800.00</t>
+  </si>
+  <si>
+    <t>1354.98</t>
+  </si>
+  <si>
+    <t>2569.00</t>
   </si>
 </sst>
 </file>
